--- a/biology/Botanique/Jardin_botanique_de_l'université_de_Ferrare/Jardin_botanique_de_l'université_de_Ferrare.xlsx
+++ b/biology/Botanique/Jardin_botanique_de_l'université_de_Ferrare/Jardin_botanique_de_l'université_de_Ferrare.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardin_botanique_de_l%27universit%C3%A9_de_Ferrare</t>
+          <t>Jardin_botanique_de_l'université_de_Ferrare</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin botanique de l'université de Ferrare est une institution du département de biologie et d'évolution de la faculté de sciences de l'université de Ferrare.
 Il est situé dans le jardin du Palazzo Turchi di Bagno auquel on accède du Corso Porta Mare. Autrefois, l'emplacement original du jardin se trouvait dans la cour du palazzo Paradiso (it) qui abritait l'ancien siège de l'université.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardin_botanique_de_l%27universit%C3%A9_de_Ferrare</t>
+          <t>Jardin_botanique_de_l'université_de_Ferrare</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1771, à la suite de la promulgation de nouveaux statuts, l'Université se dote d'un jardin botanique, dit à l'époque « Orto dei Semplici » (jardin des simples). Et sa création tardive par rapport à celle des autres jardins universitaires n'enlève rien aux recherches botaniques déjà effectuées au sein de son université connue pour être à la Renaissance l'une des meilleures écoles de médecine, en premier lieu de  botanique, faisant de Ferrare, avec son enseignement dans cette discipline, un des centres les plus importants d'Europe : en effet, sous l'impulsion de la maison d'Este, de nombreux médecins passionnés de botanique affluèrent à Ferrare parmi lesquels Berengario da Carpi, Niccolò Leoniceno, Giovanni Manardo, Gabriel Fallope ainsi que Antonio Musa Brasavola, fondateur, en 1536, du jardin botanique du Belvedere.
 En 1772, sous l'égide du préfet  Francesco Maria Giacomini, il est publié un catalogue contenant 2 800 taxons indigènes et exotiques. Au début du XIXe siècle, le jardin passe sous la responsabilité d'Antonio Campana dont le travail sera poursuivi par Francesco Jachelli et son fils. 
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jardin_botanique_de_l%27universit%C3%A9_de_Ferrare</t>
+          <t>Jardin_botanique_de_l'université_de_Ferrare</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,6 +561,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
